--- a/windea_tool/data/Enercon_E-115_3000kW.xlsx
+++ b/windea_tool/data/Enercon_E-115_3000kW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meinm\Documents\Git\windea-tool\windea_tool\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472FADFF-BAB1-4692-9219-5121AC9E1306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481C2213-0D2E-4F45-A968-E366B74782FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{03A84A7B-8957-44B9-8440-B9A0A4779E0B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>v</t>
   </si>
@@ -44,11 +44,20 @@
   <si>
     <t>Enercon E-115 (3000 kW)</t>
   </si>
+  <si>
+    <t>rho</t>
+  </si>
+  <si>
+    <t>Quelle: https://www.enercon.de/fileadmin/Redakteur/Medien-Portal/broschueren/pdf/ENERCON_Produkt_de_042017.pdf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -78,8 +87,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -394,134 +404,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE00B9B-25DA-40FE-9911-742AD7BA794B}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.2250000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="B7">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>339</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="B10">
+        <v>627.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="B11">
+        <v>1035.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>1549</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>9</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>2090</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>10</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>2580</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>11</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>2900</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>12</v>
-      </c>
-      <c r="B15">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>13</v>
       </c>
       <c r="B16">
         <v>3000</v>
@@ -529,7 +542,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17">
         <v>3000</v>
@@ -537,7 +550,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18">
         <v>3000</v>
@@ -545,7 +558,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19">
         <v>3000</v>
@@ -553,7 +566,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>3000</v>
@@ -561,7 +574,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21">
         <v>3000</v>
@@ -569,7 +582,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22">
         <v>3000</v>
@@ -577,7 +590,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23">
         <v>3000</v>
@@ -585,7 +598,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24">
         <v>3000</v>
@@ -593,7 +606,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25">
         <v>3000</v>
@@ -601,7 +614,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26">
         <v>3000</v>
@@ -609,7 +622,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27">
         <v>3000</v>
@@ -617,7 +630,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28">
         <v>3000</v>
@@ -625,15 +638,15 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -641,7 +654,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -649,7 +662,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -657,9 +670,17 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>30</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>0</v>
       </c>
     </row>
